--- a/data/trans_dic/P23_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3180274224772859</v>
+        <v>0.3245002513510163</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3265139463676972</v>
+        <v>0.3286147746697211</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3047060171520959</v>
+        <v>0.3069453772027539</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1850847027701628</v>
+        <v>0.1910871163910575</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1995293599331339</v>
+        <v>0.1941470101815669</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2738123395593958</v>
+        <v>0.2741671593013861</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2076495397860889</v>
+        <v>0.2051321419634563</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1730399273190198</v>
+        <v>0.177493031278212</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2767100337834553</v>
+        <v>0.2792577519510835</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3217750327888299</v>
+        <v>0.3207501219611378</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2700587894560576</v>
+        <v>0.2639720569709981</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1941677622799313</v>
+        <v>0.1927541174655321</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4385174209222792</v>
+        <v>0.4418336587847999</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4462679082008006</v>
+        <v>0.4437109217412276</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4228278575834483</v>
+        <v>0.4188752516938808</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2904943308850426</v>
+        <v>0.2950948281028629</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3081551871010227</v>
+        <v>0.3094838016995744</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.390589702412916</v>
+        <v>0.3966088124570445</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3151364491497499</v>
+        <v>0.3100526868826073</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2500691124501425</v>
+        <v>0.247532245427113</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3572426959226457</v>
+        <v>0.356313921572768</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4066203024965777</v>
+        <v>0.4044331446661631</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3480638986427715</v>
+        <v>0.3468610670835894</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.25792408859705</v>
+        <v>0.2542332969606408</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.312133604021921</v>
+        <v>0.3162696107969801</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3442813783416026</v>
+        <v>0.3488836994996871</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.375146860173872</v>
+        <v>0.3710531273401255</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2140047718446677</v>
+        <v>0.2031365170332769</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1897643410791238</v>
+        <v>0.189716832715961</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2409455167756791</v>
+        <v>0.2357656868817157</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2280912126032569</v>
+        <v>0.2330216687303114</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1586727330120954</v>
+        <v>0.1603613196088643</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2637692359233608</v>
+        <v>0.2619970922477742</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.305949024178342</v>
+        <v>0.3047359297039253</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3131369900519734</v>
+        <v>0.3114620471769159</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1952287866011011</v>
+        <v>0.1963390941868921</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4006303195203668</v>
+        <v>0.4050202524659338</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4421181284527249</v>
+        <v>0.4436401877398576</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4612894916299427</v>
+        <v>0.4609058487255014</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3106260555939131</v>
+        <v>0.3056346701019641</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.261874202045207</v>
+        <v>0.2614933500670415</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.322537160166655</v>
+        <v>0.3170297733413851</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3063087704492884</v>
+        <v>0.3074335655005928</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2197941728255511</v>
+        <v>0.2220491744654872</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3233829914561033</v>
+        <v>0.3172348130082341</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.365256463941974</v>
+        <v>0.3666090499262939</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.37479946468518</v>
+        <v>0.3715636587688736</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2515104420275319</v>
+        <v>0.2536646488262799</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3737708374089987</v>
+        <v>0.3733440421891886</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3347561300466188</v>
+        <v>0.3352367042320561</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2555268362168266</v>
+        <v>0.255614511673097</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2070983455759561</v>
+        <v>0.2074934795149166</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2353433958115442</v>
+        <v>0.236697477511399</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.203621655414465</v>
+        <v>0.2043935867371293</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1970574679787342</v>
+        <v>0.1954025471139759</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.150852157525538</v>
+        <v>0.149110209133047</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3148705435481375</v>
+        <v>0.3200341156574988</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2842952824174401</v>
+        <v>0.282607761541778</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.241514861146699</v>
+        <v>0.2390903412388136</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1882681041413191</v>
+        <v>0.1847660106014845</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4852544235180886</v>
+        <v>0.488241420634473</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4392298020098809</v>
+        <v>0.4419083464950965</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3544187808554471</v>
+        <v>0.3574327049174115</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2998667420175532</v>
+        <v>0.3043861804672953</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3294635567858237</v>
+        <v>0.3300889398622723</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3028557764117156</v>
+        <v>0.3018116645995859</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2838719234281922</v>
+        <v>0.2890352995003008</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2203533531755233</v>
+        <v>0.2220932241035765</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.388199556766759</v>
+        <v>0.3920551864389317</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3562105956473205</v>
+        <v>0.355178029057266</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3055236517860644</v>
+        <v>0.3091741562053482</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2446750733542045</v>
+        <v>0.2444941232776069</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4024028998538581</v>
+        <v>0.3978746233716283</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2641402635838022</v>
+        <v>0.2638662514093637</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3224428693855744</v>
+        <v>0.3270545405761193</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.193018728449997</v>
+        <v>0.1922507017797575</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2217213958205887</v>
+        <v>0.2244782660436765</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2193283648305721</v>
+        <v>0.2160645121142042</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.230956069195597</v>
+        <v>0.233678627319666</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1549134019085944</v>
+        <v>0.1516915395765133</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.323028740286214</v>
+        <v>0.3211062538820201</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.252719873803288</v>
+        <v>0.2530276000334259</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2939052070647897</v>
+        <v>0.2925087523298938</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1843523243691246</v>
+        <v>0.1857746389085532</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5046632336312576</v>
+        <v>0.5015407610930759</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3690957384509383</v>
+        <v>0.3668386819303864</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4270572112008059</v>
+        <v>0.4321608259923127</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.321349453113839</v>
+        <v>0.3185381636363206</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3100903577648892</v>
+        <v>0.3136564523808195</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3109572024808254</v>
+        <v>0.3040832037450793</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3287383483816649</v>
+        <v>0.3293274701358817</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2331368140103415</v>
+        <v>0.232589879233296</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.393217616300055</v>
+        <v>0.3911096960802662</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3215953679627863</v>
+        <v>0.3220074228178318</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3623102087178073</v>
+        <v>0.3658827985085915</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2556355805461138</v>
+        <v>0.2557764238127089</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3248771380222333</v>
+        <v>0.3238332875861116</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3509905112539254</v>
+        <v>0.3453885035499952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3352726614719509</v>
+        <v>0.3376298992674674</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1603267042443932</v>
+        <v>0.1541065063300679</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2119118106856493</v>
+        <v>0.2132805713215159</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2352806090424712</v>
+        <v>0.2322014736751331</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2009772397361512</v>
+        <v>0.205024298595553</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1090386743601453</v>
+        <v>0.1099948334886457</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2849889343221216</v>
+        <v>0.2798676752152818</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3128976298096848</v>
+        <v>0.3078140190105293</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2806331833752189</v>
+        <v>0.2849783842991657</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1433408597354857</v>
+        <v>0.1402679669293195</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4673789589656405</v>
+        <v>0.4556236517780241</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4903494072287518</v>
+        <v>0.4849370045493863</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4744101427805098</v>
+        <v>0.4773551021079643</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2549216240686827</v>
+        <v>0.2533411845550071</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3360010386022627</v>
+        <v>0.3453770745665014</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3589322106983659</v>
+        <v>0.359228744346159</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3198196338977598</v>
+        <v>0.3226739430806057</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1742605199772786</v>
+        <v>0.1823250810703554</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3761421293013997</v>
+        <v>0.3758666640229497</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.405374078233621</v>
+        <v>0.4064721270828533</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3759815781744583</v>
+        <v>0.3758259911650237</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2024127856751943</v>
+        <v>0.1979422809754426</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2674992022600141</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1853479947328306</v>
+        <v>0.1853479947328305</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.3397512240641862</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3929828986831893</v>
+        <v>0.39292403613287</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.248826898194534</v>
+        <v>0.250253615066156</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2770288702590437</v>
+        <v>0.2802801562651467</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2286039742142464</v>
+        <v>0.2350541064481423</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1781801351804905</v>
+        <v>0.1820267410359552</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.189784727879106</v>
+        <v>0.1904177774604968</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2182239491646378</v>
+        <v>0.2178699000924394</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1495222421152161</v>
+        <v>0.1476588612917062</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3016592831802648</v>
+        <v>0.2986964407820376</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2350146389071375</v>
+        <v>0.2364800521369233</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2651142020136563</v>
+        <v>0.2632146800128091</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2035588943263971</v>
+        <v>0.2024570226213592</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5120109301421492</v>
+        <v>0.5149893118309374</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3618450634757225</v>
+        <v>0.3671353479109216</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3967638578200474</v>
+        <v>0.3938916391465125</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3308416026543257</v>
+        <v>0.3403166786112312</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2757852727373343</v>
+        <v>0.2782357832971241</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.29110880363648</v>
+        <v>0.2928885853521054</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3325881327561677</v>
+        <v>0.3224707410047542</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2265224548485566</v>
+        <v>0.2245610168041823</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.381207828037872</v>
+        <v>0.379641373081939</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3130025306571299</v>
+        <v>0.3101397509403501</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3397757892659958</v>
+        <v>0.3413470650265786</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2685335418604856</v>
+        <v>0.2659032781240152</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3304145923415684</v>
+        <v>0.3302429078891613</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3508474676042144</v>
+        <v>0.3455206408823563</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2643800030872708</v>
+        <v>0.2621677661187848</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2271142530321331</v>
+        <v>0.2304469151970719</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2188393710592876</v>
+        <v>0.2193621209247022</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2395645075050879</v>
+        <v>0.2406035015713543</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2174127110852898</v>
+        <v>0.2171862961060783</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2017872866634878</v>
+        <v>0.2025823735423079</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2857983927327961</v>
+        <v>0.2862900226553579</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3042180895043704</v>
+        <v>0.3033347787814153</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2483016760564204</v>
+        <v>0.2499621361550119</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2240806955757239</v>
+        <v>0.221966025792009</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4090713241705664</v>
+        <v>0.4097931003144865</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4248363737796821</v>
+        <v>0.4259541499263528</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3374686429087441</v>
+        <v>0.3389836224493604</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3055106521527334</v>
+        <v>0.3036185927079236</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2881572391047817</v>
+        <v>0.286900395273755</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3168008345590141</v>
+        <v>0.3113820418214618</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2828428283354438</v>
+        <v>0.2858297151838854</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2597820089986344</v>
+        <v>0.2600235652377796</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.339442550579269</v>
+        <v>0.3369235909949257</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3569716586847902</v>
+        <v>0.3554996902056737</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2978302620234682</v>
+        <v>0.3042327351890305</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2700633649763901</v>
+        <v>0.2683391235835992</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3619535030747055</v>
+        <v>0.3663977342632594</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3245180469598943</v>
+        <v>0.3230367110566172</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2951184095599743</v>
+        <v>0.2927190097541907</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2259216610757568</v>
+        <v>0.2293886563548672</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.198690760523953</v>
+        <v>0.1982508692054037</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2187831704800919</v>
+        <v>0.2223600859135858</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2280546337031535</v>
+        <v>0.2317544242896866</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1414221631550979</v>
+        <v>0.1408819149045296</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2868552991362104</v>
+        <v>0.2846587642914668</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2795925126196147</v>
+        <v>0.2799651259822015</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2693779087967666</v>
+        <v>0.2696820434473863</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1890275460222921</v>
+        <v>0.1897603424287376</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4355876503474153</v>
+        <v>0.4340105744272304</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3922837041168515</v>
+        <v>0.395630591028893</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3644199455347222</v>
+        <v>0.3606141943039228</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.293544242697366</v>
+        <v>0.2958211180347996</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2582868436645136</v>
+        <v>0.2596350462423982</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2821809921804738</v>
+        <v>0.2837721515014633</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2896240722738817</v>
+        <v>0.2909851767432761</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.190042181808581</v>
+        <v>0.1882645672415322</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3340965883395571</v>
+        <v>0.3341028107544294</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3284202304859892</v>
+        <v>0.3270279935689228</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3165788775017832</v>
+        <v>0.3153489274723229</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2335324024501525</v>
+        <v>0.2319518388221628</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.380969642021169</v>
+        <v>0.3824223081344389</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3517604048391249</v>
+        <v>0.3523748024990001</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3298913901695234</v>
+        <v>0.3290120175879894</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.2382641432519156</v>
+        <v>0.2394022922885192</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2306090796420667</v>
+        <v>0.2303695009626821</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2545320334610676</v>
+        <v>0.2537503818183868</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2456685304786344</v>
+        <v>0.2451734870609874</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1777417211281965</v>
+        <v>0.178519485723527</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3098232429060634</v>
+        <v>0.3106293652586773</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.3067147429424985</v>
+        <v>0.3070758325793712</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2908360125738308</v>
+        <v>0.292048827185374</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2118000868114483</v>
+        <v>0.2118551120516892</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4170760450911604</v>
+        <v>0.4152264714443021</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3865999470064571</v>
+        <v>0.3860519241670833</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3631035297314275</v>
+        <v>0.3628549158123226</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2718623964469848</v>
+        <v>0.2719471848166741</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2609835619689522</v>
+        <v>0.2613209926347024</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2865613260194423</v>
+        <v>0.2845751344166443</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2757115418303183</v>
+        <v>0.2770235842803463</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2004202949547753</v>
+        <v>0.2026964780136919</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3341027434465323</v>
+        <v>0.3324219212670809</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3307246937603189</v>
+        <v>0.3303537794642027</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3140923339294397</v>
+        <v>0.3148988635813798</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2318568348086373</v>
+        <v>0.2320091775632078</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>86825</v>
+        <v>88592</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>96236</v>
+        <v>96855</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>89511</v>
+        <v>90169</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>59013</v>
+        <v>60927</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>52045</v>
+        <v>50641</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>78651</v>
+        <v>78753</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>59949</v>
+        <v>59222</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>54691</v>
+        <v>56099</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>147721</v>
+        <v>149081</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>187268</v>
+        <v>186671</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>157300</v>
+        <v>153754</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>123278</v>
+        <v>122381</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>119720</v>
+        <v>120625</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>131532</v>
+        <v>130778</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>124210</v>
+        <v>123049</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>92623</v>
+        <v>94090</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>80379</v>
+        <v>80725</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>112195</v>
+        <v>113924</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>90981</v>
+        <v>89513</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>79037</v>
+        <v>78235</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>190713</v>
+        <v>190217</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>236646</v>
+        <v>235373</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>202735</v>
+        <v>202034</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>163758</v>
+        <v>161414</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>153580</v>
+        <v>155615</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>174044</v>
+        <v>176370</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>188215</v>
+        <v>186161</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>113561</v>
+        <v>107794</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>95632</v>
+        <v>95608</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>126199</v>
+        <v>123486</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>118810</v>
+        <v>121378</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>86714</v>
+        <v>87636</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>262709</v>
+        <v>260944</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>314911</v>
+        <v>313662</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>320213</v>
+        <v>318500</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>210289</v>
+        <v>211485</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>197123</v>
+        <v>199283</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>223503</v>
+        <v>224272</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>231434</v>
+        <v>231242</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>164833</v>
+        <v>162184</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>131971</v>
+        <v>131779</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>168934</v>
+        <v>166049</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>159552</v>
+        <v>160138</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>120116</v>
+        <v>121349</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>322084</v>
+        <v>315960</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>375956</v>
+        <v>377348</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>383269</v>
+        <v>379960</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>270912</v>
+        <v>273233</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>119175</v>
+        <v>119039</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>108476</v>
+        <v>108632</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>81402</v>
+        <v>81430</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>65442</v>
+        <v>65566</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>78937</v>
+        <v>79391</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>69238</v>
+        <v>69501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>66272</v>
+        <v>65716</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>53761</v>
+        <v>53140</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>206007</v>
+        <v>209385</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>188795</v>
+        <v>187674</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>158162</v>
+        <v>156574</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>126587</v>
+        <v>124232</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>154721</v>
+        <v>155674</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>142331</v>
+        <v>143199</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>112905</v>
+        <v>113866</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>94756</v>
+        <v>96184</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>110506</v>
+        <v>110716</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>102981</v>
+        <v>102626</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>95469</v>
+        <v>97205</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>78530</v>
+        <v>79150</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>253983</v>
+        <v>256505</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>236552</v>
+        <v>235867</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>200079</v>
+        <v>202470</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>164513</v>
+        <v>164392</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>144330</v>
+        <v>142706</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>98784</v>
+        <v>98681</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>119292</v>
+        <v>120998</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>72024</v>
+        <v>71737</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>82360</v>
+        <v>83384</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>85308</v>
+        <v>84039</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>89149</v>
+        <v>90199</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>65367</v>
+        <v>64008</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>235852</v>
+        <v>234448</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>192808</v>
+        <v>193043</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>222181</v>
+        <v>221126</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>146580</v>
+        <v>147711</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>181008</v>
+        <v>179888</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>138035</v>
+        <v>137191</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>157996</v>
+        <v>159884</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>119910</v>
+        <v>118861</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>115185</v>
+        <v>116510</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>120947</v>
+        <v>118273</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>126892</v>
+        <v>127120</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>98375</v>
+        <v>98144</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>287099</v>
+        <v>285560</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>245356</v>
+        <v>245670</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>273893</v>
+        <v>276593</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>203258</v>
+        <v>203370</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>66050</v>
+        <v>65838</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>74627</v>
+        <v>73436</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>70817</v>
+        <v>71315</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>32974</v>
+        <v>31694</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>44007</v>
+        <v>44292</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>51666</v>
+        <v>50989</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>43931</v>
+        <v>44816</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>24775</v>
+        <v>24992</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>117124</v>
+        <v>115019</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>135237</v>
+        <v>133040</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>120618</v>
+        <v>122486</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>62049</v>
+        <v>60719</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>95022</v>
+        <v>92632</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>104257</v>
+        <v>103106</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>100205</v>
+        <v>100827</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>52428</v>
+        <v>52103</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>69777</v>
+        <v>71724</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>78818</v>
+        <v>78883</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>69908</v>
+        <v>70532</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>39595</v>
+        <v>41427</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>154585</v>
+        <v>154472</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>175206</v>
+        <v>175681</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>161600</v>
+        <v>161533</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>87620</v>
+        <v>85685</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>106424</v>
+        <v>106408</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>68174</v>
+        <v>68565</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>72893</v>
+        <v>73748</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>61885</v>
+        <v>63631</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>49560</v>
+        <v>50630</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>53146</v>
+        <v>53323</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>59600</v>
+        <v>59504</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>39436</v>
+        <v>38945</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>165597</v>
+        <v>163971</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>130201</v>
+        <v>131013</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>142164</v>
+        <v>141146</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>108793</v>
+        <v>108205</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>138658</v>
+        <v>139465</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>99139</v>
+        <v>100588</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>104398</v>
+        <v>103642</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>89561</v>
+        <v>92126</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>76708</v>
+        <v>77390</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>81519</v>
+        <v>82018</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>90835</v>
+        <v>88072</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>59745</v>
+        <v>59228</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>209266</v>
+        <v>208406</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>173407</v>
+        <v>171821</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>182201</v>
+        <v>183043</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>143520</v>
+        <v>142114</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>203214</v>
+        <v>203108</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>232537</v>
+        <v>229007</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>173297</v>
+        <v>171847</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>162938</v>
+        <v>165329</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>139667</v>
+        <v>140001</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>166223</v>
+        <v>166943</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>149871</v>
+        <v>149715</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>155010</v>
+        <v>155621</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>358176</v>
+        <v>358792</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>412715</v>
+        <v>411516</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>333922</v>
+        <v>336155</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>332897</v>
+        <v>329755</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>251590</v>
+        <v>252034</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>281576</v>
+        <v>282317</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>221206</v>
+        <v>222199</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>219182</v>
+        <v>217824</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>183907</v>
+        <v>183105</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>219813</v>
+        <v>216053</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>194975</v>
+        <v>197034</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>199561</v>
+        <v>199746</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>425405</v>
+        <v>422248</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>484282</v>
+        <v>482285</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>400530</v>
+        <v>409140</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>401209</v>
+        <v>398648</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>269219</v>
+        <v>272525</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>252497</v>
+        <v>251345</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>229774</v>
+        <v>227906</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>180044</v>
+        <v>182807</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>155676</v>
+        <v>155332</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>180027</v>
+        <v>182971</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>188411</v>
+        <v>191468</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>117569</v>
+        <v>117120</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>438116</v>
+        <v>434761</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>447607</v>
+        <v>448203</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>432284</v>
+        <v>432772</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>307786</v>
+        <v>308980</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>323988</v>
+        <v>322815</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>305224</v>
+        <v>307828</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>283731</v>
+        <v>280768</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>233934</v>
+        <v>235749</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>202371</v>
+        <v>203427</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>232195</v>
+        <v>233504</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>239278</v>
+        <v>240402</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>157988</v>
+        <v>156510</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>510268</v>
+        <v>510277</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>525776</v>
+        <v>523548</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>508030</v>
+        <v>506056</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>380252</v>
+        <v>377678</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1247866</v>
+        <v>1252625</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1205043</v>
+        <v>1207148</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1119128</v>
+        <v>1116145</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>840920</v>
+        <v>844937</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>779274</v>
+        <v>778464</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>905199</v>
+        <v>902419</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>869446</v>
+        <v>867694</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>663222</v>
+        <v>666124</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>2061780</v>
+        <v>2067145</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>2141506</v>
+        <v>2144027</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2015935</v>
+        <v>2024341</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1537825</v>
+        <v>1538225</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1366133</v>
+        <v>1360075</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1324394</v>
+        <v>1322517</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1231797</v>
+        <v>1230954</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>959501</v>
+        <v>959800</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>881915</v>
+        <v>883055</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1019106</v>
+        <v>1012042</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>975772</v>
+        <v>980415</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>747844</v>
+        <v>756338</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2223353</v>
+        <v>2212167</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2309145</v>
+        <v>2306555</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2177136</v>
+        <v>2182727</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1683452</v>
+        <v>1684558</v>
       </c>
     </row>
     <row r="40">
